--- a/lab 4/table_e1_q1.xlsx
+++ b/lab 4/table_e1_q1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kurtis Potier\Documents\talk_data_to_me\lab 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A26AF7A-8292-475C-A66F-7158FDEA7E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9A103C-7549-40EA-B6EA-99C36CA2815E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{56DA7CF3-4C16-44C1-90DD-750F798B30B4}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>cv, 100 folds</t>
   </si>
   <si>
-    <t>model</t>
-  </si>
-  <si>
     <t>caps</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>nothing</t>
   </si>
   <si>
-    <t>accuracy</t>
-  </si>
-  <si>
     <t>nonspam, detected as spam</t>
   </si>
   <si>
@@ -89,20 +83,29 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>positives per false positives</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>Rankings (lower is better)</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Positives per False Positives</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +120,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -175,11 +191,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,18 +205,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -513,470 +540,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B23AF8-36EB-4027-9311-EAF6FD8E1061}">
-  <dimension ref="A2:Q19"/>
+  <dimension ref="B2:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="17" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>ROUND((100*(D3-C3)/C3),1)&amp;"%"</f>
+        <v>-36.2%</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.21679999999999999</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>ROUND((100*(F3-C3)/C3),1)&amp;"%"</f>
+        <v>-36%</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="K3" s="11">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L3" s="11">
+        <f>P3/(P3+R3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <f>Q3/(Q3+O3)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2184</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.224</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.15820000000000001</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" ref="E4:E6" si="0">ROUND((100*(D4-C4)/C4),1)&amp;"%"</f>
+        <v>-29.4%</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.1593</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" ref="G4:G6" si="1">ROUND((100*(F4-C4)/C4),1)&amp;"%"</f>
+        <v>-28.9%</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.21640000000000001</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f>ROUND((100*(C3-B3)/B3),1)&amp;"%"</f>
-        <v>-36.2%</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.21679999999999999</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f>ROUND((100*(E3-B3)/B3),1)&amp;"%"</f>
-        <v>-36%</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.60640000000000005</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <f>O3/(O3+Q3)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <f>P3/(P3+N3)</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2184</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="H4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="J4" s="10">
         <v>0.65900000000000003</v>
       </c>
-      <c r="J4" s="3">
-        <f>ROUND(O4/N4,2)</f>
+      <c r="K4" s="11">
+        <f>ROUND(P4/O4,2)</f>
         <v>2.17</v>
       </c>
-      <c r="K4" s="3">
-        <f>O4/(O4+Q4)</f>
+      <c r="L4" s="11">
+        <f>P4/(P4+R4)</f>
         <v>0.24770642201834864</v>
       </c>
-      <c r="L4" s="3">
-        <f>P4/(P4+N4)</f>
+      <c r="M4" s="11">
+        <f>Q4/(Q4+O4)</f>
         <v>0.92582417582417587</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="3">
+      <c r="N4" s="8"/>
+      <c r="O4" s="3">
         <v>162</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>351</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>2022</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>1066</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.224</v>
-      </c>
       <c r="C5" s="1">
-        <v>0.15820000000000001</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D7" si="0">ROUND((100*(C5-B5)/B5),1)&amp;"%"</f>
-        <v>-29.4%</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.1593</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" ref="F5:F7" si="1">ROUND((100*(E5-B5)/B5),1)&amp;"%"</f>
-        <v>-28.9%</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.79837999999999998</v>
-      </c>
-      <c r="J5" s="3">
-        <f>ROUND(O5/N5,2)</f>
-        <v>7.23</v>
-      </c>
-      <c r="K5" s="3">
-        <f>O5/(O5+Q5)</f>
-        <v>0.56598447424135501</v>
-      </c>
-      <c r="L5" s="3">
-        <f>P5/(P5+N5)</f>
-        <v>0.94917582417582413</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="3">
-        <v>111</v>
-      </c>
-      <c r="O5" s="3">
-        <v>802</v>
-      </c>
-      <c r="P5" s="3">
-        <v>2073</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D5" s="1">
         <v>7.8659999999999994E-2</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>19.2%</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F5" s="1">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>20.5%</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.79837999999999998</v>
+      </c>
+      <c r="K5" s="11">
+        <f>ROUND(P5/O5,2)</f>
+        <v>7.23</v>
+      </c>
+      <c r="L5" s="11">
+        <f>P5/(P5+R5)</f>
+        <v>0.56598447424135501</v>
+      </c>
+      <c r="M5" s="11">
+        <f>Q5/(Q5+O5)</f>
+        <v>0.94917582417582413</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="3">
+        <v>111</v>
+      </c>
+      <c r="P5" s="3">
+        <v>802</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2073</v>
+      </c>
+      <c r="R5" s="3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="3">
-        <v>0.92110000000000003</v>
-      </c>
-      <c r="J6" s="3">
-        <f>ROUND(O6/N6,2)</f>
-        <v>9.92</v>
-      </c>
-      <c r="K6" s="3">
-        <f>O6/(O6+Q6)</f>
-        <v>0.88920254057868742</v>
-      </c>
-      <c r="L6" s="3">
-        <f>P6/(P6+N6)</f>
-        <v>0.94184981684981683</v>
-      </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="3">
-        <v>127</v>
-      </c>
-      <c r="O6" s="3">
-        <v>1260</v>
-      </c>
-      <c r="P6" s="3">
-        <v>2057</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="C6" s="1">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D6" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2.9%</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F6" s="1">
         <v>0.14910000000000001</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>9.6%</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="K6" s="11">
+        <f>ROUND(P6/O6,2)</f>
+        <v>9.92</v>
+      </c>
+      <c r="L6" s="11">
+        <f>P6/(P6+R6)</f>
+        <v>0.88920254057868742</v>
+      </c>
+      <c r="M6" s="11">
+        <f>Q6/(Q6+O6)</f>
+        <v>0.94184981684981683</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="3">
+        <v>127</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1260</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2057</v>
+      </c>
+      <c r="R6" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="10">
         <v>0.84389999999999998</v>
       </c>
-      <c r="J7" s="3">
-        <f>ROUND(O7/N7,2)</f>
+      <c r="K7" s="11">
+        <f>ROUND(P7/O7,2)</f>
         <v>2.86</v>
       </c>
-      <c r="K7" s="3">
-        <f>O7/(O7+Q7)</f>
+      <c r="L7" s="11">
+        <f>P7/(P7+R7)</f>
         <v>0.92731122088920259</v>
       </c>
-      <c r="L7" s="3">
-        <f>P7/(P7+N7)</f>
+      <c r="M7" s="11">
+        <f>Q7/(Q7+O7)</f>
         <v>0.7898351648351648</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="3">
+      <c r="N7" s="8"/>
+      <c r="O7" s="3">
         <v>459</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="4">
         <v>1314</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1725</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="5">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H9" s="8" t="s">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H10" s="2" t="s">
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
+      <c r="K11" s="6">
+        <v>5</v>
+      </c>
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <f>J11+K11+L11+M11</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3">
-        <v>5</v>
-      </c>
-      <c r="J11" s="3">
-        <v>5</v>
-      </c>
-      <c r="K11" s="3">
-        <v>5</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <f>I11+J11+K11+L11</f>
+      <c r="J12" s="6">
+        <v>4</v>
+      </c>
+      <c r="K12" s="6">
+        <v>4</v>
+      </c>
+      <c r="L12" s="6">
+        <v>4</v>
+      </c>
+      <c r="M12" s="6">
+        <v>4</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" ref="N12:N15" si="2">J12+K12+L12+M12</f>
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H12" s="2" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" ref="M12:M15" si="2">I12+J12+K12+L12</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="J13" s="6">
         <v>3</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="6">
         <v>2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="6">
         <v>3</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="6">
         <v>2</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="6">
         <v>1</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="6">
         <v>2</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="6">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="6">
         <v>2</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="6">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="6">
         <v>1</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="6">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N19" s="9"/>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="I9:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1154,18 +1175,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1188,14 +1209,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95D83DD0-E703-43B2-B065-AA355157EF8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B44F8BCF-1BD3-4A4C-B605-62EB06D244AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1210,4 +1223,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95D83DD0-E703-43B2-B065-AA355157EF8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>